--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahm\graduate\classes\princiNav\homework\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{523B235B-0233-4A90-970C-2C9E6389CD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59803DF0-D731-4B0B-BC68-451ADC80AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EBF6CD08-7D69-4463-BE1D-7AD796650788}"/>
+    <workbookView xWindow="-28920" yWindow="6165" windowWidth="29040" windowHeight="15720" xr2:uid="{EBF6CD08-7D69-4463-BE1D-7AD796650788}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -466,7 +466,7 @@
       </c>
       <c r="F4">
         <f>E4-E3</f>
-        <v>51</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
